--- a/tag.xlsx
+++ b/tag.xlsx
@@ -2,32 +2,208 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="14355" windowHeight="4680" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="14355" windowHeight="4680" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="tag form" sheetId="1" r:id="rId1"/>
     <sheet name="tag jstl" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="tag script" sheetId="3" r:id="rId3"/>
+    <sheet name="tag css link" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>tag form spring mvc</t>
   </si>
   <si>
-    <t>form:select</t>
-  </si>
-  <si>
     <t>tag jstl</t>
   </si>
   <si>
-    <t>c:set</t>
+    <t>&lt;c:set var="url" value="${pageContext.request.contextPath}"&gt;&lt;/c:set&gt;</t>
+  </si>
+  <si>
+    <t>tag script</t>
+  </si>
+  <si>
+    <t>&lt;script src="${url}/static/js/bootstrap-datetimepicker.min.js"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>tag html link</t>
+  </si>
+  <si>
+    <t>&lt;link href="${url}/static/css/bootstrap-datetimepicker.min.css" rel="stylesheet"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;spring:message var="msg_deleteQuestion"</t>
+  </si>
+  <si>
+    <t>code="msg.alert.delete.question"&gt;&lt;/spring:message&gt;</t>
+  </si>
+  <si>
+    <t>&lt;c:out value="${list_title }"&gt;&lt;/c:out&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="javascript:void(0);" title="&lt;spring:message code="report.download.xls" /&gt;" onclick="exportToExcel();"&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ext:messages bean="${bean}"&gt;&lt;/ext:messages&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%@ taglib uri="http://java.sun.com/jsp/jstl/core" prefix="c"%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%@taglib prefix="form" uri="http://www.springframework.org/tags/form"%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%@ taglib prefix="spring" uri="http://www.springframework.org/tags"%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%@ taglib prefix="ext" tagdir="/WEB-INF/tags"%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%@ taglib prefix="ext-form" tagdir="/WEB-INF/tags/form"%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%@ taglib prefix="fmt" uri="http://java.sun.com/jsp/jstl/fmt"%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ext-form:combobox id="lstRequestType"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">path="requestType" </t>
+  </si>
+  <si>
+    <t>emptyOption="true" labelCode="requesttype.title"</t>
+  </si>
+  <si>
+    <t>itemCode="requestTypeId" itemLable="nameShow"</t>
+  </si>
+  <si>
+    <t>data="${bean.requestTypes}" cssInput="span10"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/ext-form:combobox&gt;</t>
+  </si>
+  <si>
+    <t>&lt;form:form &gt; &lt;/form:form&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ext-form:input-text path="fullName" id="fullName"</t>
+  </si>
+  <si>
+    <t>cssInput="span10" labelCode="sendrequest.fullname"&gt;&lt;/ext-form:input-text&gt;</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>form</t>
+  </si>
+  <si>
+    <t>messages</t>
+  </si>
+  <si>
+    <t>combobox</t>
+  </si>
+  <si>
+    <t>selection</t>
+  </si>
+  <si>
+    <t>&lt;form:select id="status" path="status" class="span10"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;form:option value=""&gt;&lt;spring:message code="msg.choose"&gt;&lt;/spring:message&gt;&lt;/form:option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;form:option value="0"&gt;&lt;spring:message code="sendrequest.status.waitting"&gt;&lt;/spring:message&gt;&lt;/form:option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;form:option value="1"&gt;&lt;spring:message code="sendrequest.status.solved"&gt;&lt;/spring:message&gt;&lt;/form:option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;form:option value="2"&gt;&lt;spring:message code="sendrequest.status.cancel"&gt;&lt;/spring:message&gt;&lt;/form:option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/form:select&gt;</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>&lt;fmt:formatDate var="var_fromApproveDate" value="${bean.fromApproveDate}" pattern="${sessionScope.formatDate}" /&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ext-form:input-date path="fromApproveDate" id="var_fromApproveDate_id" value="${var_fromApproveDate}" labelCode="creditcard.process.from.date"  /&gt;</t>
+  </si>
+  <si>
+    <t>@InitBinder</t>
+  </si>
+  <si>
+    <t>public void dateBinder(WebDataBinder binder, Locale locale, HttpServletRequest request) {</t>
+  </si>
+  <si>
+    <t>SimpleDateFormat dateFormat = new SimpleDateFormat(request.getSession().getAttribute("formatDate") == null</t>
+  </si>
+  <si>
+    <t>? (systemConfig.getConfig(systemConfig.DATE_PATTERN))</t>
+  </si>
+  <si>
+    <t>: (request.getSession().getAttribute("formatDate")) + "");</t>
+  </si>
+  <si>
+    <t>// Create a new CustomDateEditor</t>
+  </si>
+  <si>
+    <t>CustomDateEditor editor = new CustomDateEditor(dateFormat, true);</t>
+  </si>
+  <si>
+    <t>// Register it as custom editor for the Date type</t>
+  </si>
+  <si>
+    <t>binder.registerCustomEditor(Date.class, editor);</t>
+  </si>
+  <si>
+    <t>binder.registerCustomEditor(Double.class, new DoubleEditor(locale, "#,###.##"));</t>
+  </si>
+  <si>
+    <t>request.getSession().setAttribute("localeSelect", locale);</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>&lt;ext-form:input-date-time path="fromApproveDate" id="var_fromApproveDate_id" value="${var_fromApproveDate}" labelCode="creditcard.process.from.date"  /&gt;</t>
+  </si>
+  <si>
+    <t>paging</t>
+  </si>
+  <si>
+    <t>&lt;ext:pagination bean="${bean}" maxPage="5"</t>
+  </si>
+  <si>
+    <t>formId="search_form"&gt;&lt;/ext:pagination&gt;</t>
+  </si>
+  <si>
+    <t>&lt;c:if test="${_sendrequest.status == 0}"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;spring:message code="sendrequest.status.waitting" /&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/c:if&gt;</t>
+  </si>
+  <si>
+    <t>disable="${bean.entity.status == null ? 'false' : 'true' or bean.entity.status == 0 ? 'false' : 'true' }"</t>
+  </si>
+  <si>
+    <t>if clause</t>
   </si>
 </sst>
 </file>
@@ -70,9 +246,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -89,22 +266,297 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="6048375"/>
+          <a:ext cx="5524500" cy="1200150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>581026</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1800226" y="3867150"/>
+          <a:ext cx="4791074" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1809750" y="5172074"/>
+          <a:ext cx="3933825" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1800225" y="2019299"/>
+          <a:ext cx="7477125" cy="1228725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>285334</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>190333</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="7610475"/>
+          <a:ext cx="5514975" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>37684</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>85558</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="10" name="Picture 9"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -117,7 +569,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="1123950"/>
+          <a:off x="9505950" y="1971675"/>
           <a:ext cx="3333334" cy="1333333"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -125,6 +577,357 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectangle 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1809750" y="8562974"/>
+          <a:ext cx="10077450" cy="1038225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectangle 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1800225" y="9515475"/>
+          <a:ext cx="10077450" cy="3048000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>74294</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Rectangle 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1924051" y="9163050"/>
+          <a:ext cx="1200150" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>45718</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Rectangle 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1933575" y="9515474"/>
+          <a:ext cx="1200150" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>523657</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>9476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="9896475"/>
+          <a:ext cx="1742857" cy="390476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9295</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>19000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4267200" y="9896475"/>
+          <a:ext cx="1838095" cy="400000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Rectangle 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1800225" y="13954125"/>
+          <a:ext cx="10077450" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -410,29 +1213,278 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:noFill/>
+      </a:spPr>
+      <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+      <a:lstStyle>
+        <a:defPPr algn="l">
+          <a:defRPr sz="1100"/>
+        </a:defPPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="43.5" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:5" ht="43.5" x14ac:dyDescent="0.65">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E55" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F57" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H58" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H59" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F60" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F61" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F62" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="63" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F63" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F65" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F67" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E68" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>54</v>
+      </c>
+      <c r="D72" t="s">
+        <v>55</v>
+      </c>
+      <c r="I72" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -444,22 +1496,98 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="43.5" x14ac:dyDescent="0.65">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" ht="43.5" x14ac:dyDescent="0.65">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -467,14 +1595,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A3:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/tag.xlsx
+++ b/tag.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="14355" windowHeight="4680" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="14355" windowHeight="4680"/>
   </bookViews>
   <sheets>
     <sheet name="tag form" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>tag form spring mvc</t>
   </si>
@@ -204,6 +204,21 @@
   </si>
   <si>
     <t>if clause</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>&lt;ext-form:input-combotree path="entity.departmentId"</t>
+  </si>
+  <si>
+    <t>url="${pageContext.request.contextPath}/system/account/department/json_tree?id=${dept.departmentId }"</t>
+  </si>
+  <si>
+    <t>required="true" labelCode="dept.page.list.title"</t>
+  </si>
+  <si>
+    <t>id="departmentId"&gt;&lt;/ext-form:input-combotree&gt;</t>
   </si>
 </sst>
 </file>
@@ -254,8 +269,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -928,6 +971,98 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rectangle 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1809750" y="15039975"/>
+          <a:ext cx="10077450" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect l="21013" t="47532" r="60463" b="21606"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1971675" y="16154400"/>
+          <a:ext cx="2409825" cy="2257425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1248,10 +1383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="H90" sqref="H90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1485,6 +1620,29 @@
       </c>
       <c r="I72" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>62</v>
+      </c>
+      <c r="D77" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E78" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E79" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E80" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1599,7 +1757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
